--- a/biology/Botanique/Rosamunde_(rose)/Rosamunde_(rose).xlsx
+++ b/biology/Botanique/Rosamunde_(rose)/Rosamunde_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Rosamunde' est un cultivar de rosier obtenu en 1941 par le rosiériste néerlandais Mathias Leenders[1]. Son nom (Rosemonde en français) rend hommage à ce prénom et à la musique de scène de Franz Schubert, Rosamunde, composée en 1823.
+'Rosamunde' est un cultivar de rosier obtenu en 1941 par le rosiériste néerlandais Mathias Leenders. Son nom (Rosemonde en français) rend hommage à ce prénom et à la musique de scène de Franz Schubert, Rosamunde, composée en 1823.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce petit rosier floribunda présente des fleurs en quart de rosette d'un rose franc à rose corail[2], doubles (17-25 pétales) dont la floraison est remontante. Elles sont peu parfumées. Son petit buisson s'élève de 60 cm à 80 cm de hauteur.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce petit rosier floribunda présente des fleurs en quart de rosette d'un rose franc à rose corail, doubles (17-25 pétales) dont la floraison est remontante. Elles sont peu parfumées. Son petit buisson s'élève de 60 cm à 80 cm de hauteur.
 Sa zone de rusticité est de 6b à 9b; cette variété résiste donc aux hivers froids. Elle est particulièrement adaptée au climat méditerranéen car elle supporte bien la chaleur. On peut l'admirer à l'Europa-Rosarium de Sangerhausen en Allemagne. Cette jolie rose éclaire les devants des mixed-borders en faisant contraste avec des vivaces, surtout si plusieurs pieds sont plantés en bordure.
-Elle est issue d'un semis non nommé et du pollen de 'Permanent Wave' (Leenders, 1932)[1]. Elle est devenue rare aujourd'hui dans les catalogues.
+Elle est issue d'un semis non nommé et du pollen de 'Permanent Wave' (Leenders, 1932). Elle est devenue rare aujourd'hui dans les catalogues.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le croisement avec 'Sommerwind' (Kordes, 1985) x ['Milrose' (Delbard, 1965) x 'Rosamunde'] a donné naissance à 'Léonard de Vinci' (Meilland, 1994)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le croisement avec 'Sommerwind' (Kordes, 1985) x ['Milrose' (Delbard, 1965) x 'Rosamunde'] a donné naissance à 'Léonard de Vinci' (Meilland, 1994).
 </t>
         </is>
       </c>
